--- a/biology/Botanique/Cryptogramma_crispa/Cryptogramma_crispa.xlsx
+++ b/biology/Botanique/Cryptogramma_crispa/Cryptogramma_crispa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Allosore crépu, la Cryptogramme crispée ou encore la Cryptogramme crépue, Cryptogramma crispa, est une espèce de fougères de la famille des Pteridaceae. C'est une plante vivace que l'on trouve surtout dans les régions montagneuses d'Europe méridionale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Allosore crépu, la Cryptogramme crispée ou encore la Cryptogramme crépue, Cryptogramma crispa, est une espèce de fougères de la famille des Pteridaceae. C'est une plante vivace que l'on trouve surtout dans les régions montagneuses d'Europe méridionale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 septembre 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Cryptogramma crispa subsp. acrostichoides Hultén
 Cryptogramma crispa subsp. crispa
 Cryptogramma crispa subsp. raddeana Hultén
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">15 à 25 cm de hauteur en touffes regroupant des feuilles très différentiées : certaines à limbe très découpés qui sont stériles et d'autres portent les sporanges sous la bordure enroulée des pinnules. Les feuilles se flétrissent à l'automne.
 </t>
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Europe, elle est présente dans les montagnes (Alpes, Massif Central, Pyrénées) et les régions septentrionales.
 </t>
@@ -611,7 +629,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Éboulis siliceux et fentes de rochers en pleine lumière. Haute montagne au-dessus de 1 200 m jusqu'à l'étage alpin.
 </t>
@@ -642,7 +662,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Lorraine et en Limousin.
 En Belgique, l'espèce est protégée légalement.
